--- a/Jambi_CO2_light_response.xlsx
+++ b/Jambi_CO2_light_response.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="53">
   <si>
     <t>Unit for Vcmax is umol CO2 m-2 s-1</t>
   </si>
@@ -80,12 +80,6 @@
   </si>
   <si>
     <t>SE_J</t>
-  </si>
-  <si>
-    <t>Rd_30</t>
-  </si>
-  <si>
-    <t>SE_Rd</t>
   </si>
   <si>
     <t>leaf N [%]</t>
@@ -512,12 +506,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
@@ -557,15 +551,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA49"/>
+  <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -641,37 +635,31 @@
       <c r="Y1" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" t="s">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
         <v>36</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -692,69 +680,63 @@
         <v>5.2004999999999999</v>
       </c>
       <c r="O2">
-        <v>1.0589999999999999</v>
+        <v>2.403</v>
       </c>
       <c r="P2">
-        <v>0.85150000000000003</v>
+        <v>53.84</v>
       </c>
       <c r="Q2">
-        <v>2.403</v>
+        <v>23.16</v>
       </c>
       <c r="R2">
-        <v>53.84</v>
+        <v>3.6844999999999999</v>
       </c>
       <c r="S2">
-        <v>23.16</v>
+        <v>500.68400000000003</v>
       </c>
       <c r="T2">
-        <v>3.6844999999999999</v>
+        <v>73.871499999999997</v>
       </c>
       <c r="U2">
-        <v>500.68400000000003</v>
+        <v>13.653499999999999</v>
       </c>
       <c r="V2">
-        <v>73.871499999999997</v>
+        <v>1.7470000000000001</v>
       </c>
       <c r="W2">
-        <v>13.653499999999999</v>
+        <v>9.0437081000000002E-2</v>
       </c>
       <c r="X2">
-        <v>1.7470000000000001</v>
+        <v>13.04</v>
       </c>
       <c r="Y2">
-        <v>9.0437081000000002E-2</v>
-      </c>
-      <c r="Z2">
-        <v>13.04</v>
-      </c>
-      <c r="AA2">
         <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>36</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -775,69 +757,63 @@
         <v>6.9240000000000004</v>
       </c>
       <c r="O3">
-        <v>1.484</v>
+        <v>2.82</v>
       </c>
       <c r="P3">
-        <v>1.121</v>
+        <v>53.04</v>
       </c>
       <c r="Q3">
-        <v>2.82</v>
+        <v>18.809000000000001</v>
       </c>
       <c r="R3">
-        <v>53.04</v>
+        <v>3.4980000000000002</v>
       </c>
       <c r="S3">
-        <v>18.809000000000001</v>
+        <v>521.68899999999996</v>
       </c>
       <c r="T3">
-        <v>3.4980000000000002</v>
+        <v>67.049000000000007</v>
       </c>
       <c r="U3">
-        <v>521.68899999999996</v>
+        <v>14.914</v>
       </c>
       <c r="V3">
-        <v>67.049000000000007</v>
+        <v>1.891</v>
       </c>
       <c r="W3">
-        <v>14.914</v>
+        <v>9.7891539999999999E-2</v>
       </c>
       <c r="X3">
-        <v>1.891</v>
+        <v>13.7</v>
       </c>
       <c r="Y3">
-        <v>9.7891539999999999E-2</v>
-      </c>
-      <c r="Z3">
-        <v>13.7</v>
-      </c>
-      <c r="AA3">
         <v>1.64</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
         <v>36</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -858,69 +834,63 @@
         <v>3.4769999999999999</v>
       </c>
       <c r="O4">
-        <v>0.63400000000000001</v>
+        <v>1.986</v>
       </c>
       <c r="P4">
-        <v>0.58199999999999996</v>
+        <v>54.64</v>
       </c>
       <c r="Q4">
-        <v>1.986</v>
+        <v>27.510999999999999</v>
       </c>
       <c r="R4">
-        <v>54.64</v>
+        <v>3.871</v>
       </c>
       <c r="S4">
-        <v>27.510999999999999</v>
+        <v>479.67899999999997</v>
       </c>
       <c r="T4">
-        <v>3.871</v>
+        <v>80.694000000000003</v>
       </c>
       <c r="U4">
-        <v>479.67899999999997</v>
+        <v>12.393000000000001</v>
       </c>
       <c r="V4">
-        <v>80.694000000000003</v>
+        <v>1.603</v>
       </c>
       <c r="W4">
-        <v>12.393000000000001</v>
+        <v>9.4344689999999995E-2</v>
       </c>
       <c r="X4">
-        <v>1.603</v>
+        <v>11.61348493</v>
       </c>
       <c r="Y4">
-        <v>9.4344689999999995E-2</v>
-      </c>
-      <c r="Z4">
-        <v>11.61348493</v>
-      </c>
-      <c r="AA4">
         <v>1.390227393</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
         <v>36</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>38</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -941,69 +911,63 @@
         <v>9.3569999999999993</v>
       </c>
       <c r="O5">
-        <v>2.48</v>
+        <v>1.59</v>
       </c>
       <c r="P5">
-        <v>1.5429999999999999</v>
+        <v>52.88</v>
       </c>
       <c r="Q5">
-        <v>1.59</v>
+        <v>33.258000000000003</v>
       </c>
       <c r="R5">
-        <v>52.88</v>
+        <v>7.4729999999999999</v>
       </c>
       <c r="S5">
-        <v>33.258000000000003</v>
+        <v>796.57799999999997</v>
       </c>
       <c r="T5">
-        <v>7.4729999999999999</v>
+        <v>93.816000000000003</v>
       </c>
       <c r="U5">
-        <v>796.57799999999997</v>
+        <v>10.659000000000001</v>
       </c>
       <c r="V5">
-        <v>93.816000000000003</v>
+        <v>1.492</v>
       </c>
       <c r="W5">
-        <v>10.659000000000001</v>
+        <v>8.7811775999999994E-2</v>
       </c>
       <c r="X5">
-        <v>1.492</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="Y5">
-        <v>8.7811775999999994E-2</v>
-      </c>
-      <c r="Z5">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="AA5">
         <v>0.214</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
         <v>36</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
-        <v>38</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1024,69 +988,63 @@
         <v>11.853999999999999</v>
       </c>
       <c r="O6">
-        <v>2.9009999999999998</v>
+        <v>1.5580000000000001</v>
       </c>
       <c r="P6">
-        <v>1.645</v>
+        <v>59.040999999999997</v>
       </c>
       <c r="Q6">
-        <v>1.5580000000000001</v>
+        <v>37.896000000000001</v>
       </c>
       <c r="R6">
-        <v>59.040999999999997</v>
+        <v>8.423</v>
       </c>
       <c r="S6">
-        <v>37.896000000000001</v>
+        <v>1110.0530000000001</v>
       </c>
       <c r="T6">
-        <v>8.423</v>
+        <v>75.878</v>
       </c>
       <c r="U6">
-        <v>1110.0530000000001</v>
+        <v>13.179</v>
       </c>
       <c r="V6">
-        <v>75.878</v>
+        <v>1.1819999999999999</v>
       </c>
       <c r="W6">
-        <v>13.179</v>
+        <v>6.9566701999999994E-2</v>
       </c>
       <c r="X6">
-        <v>1.1819999999999999</v>
+        <v>3.4778686329999999</v>
       </c>
       <c r="Y6">
-        <v>6.9566701999999994E-2</v>
-      </c>
-      <c r="Z6">
-        <v>3.4778686329999999</v>
-      </c>
-      <c r="AA6">
         <v>0.169536193</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
         <v>36</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1107,69 +1065,63 @@
         <v>8.8320000000000007</v>
       </c>
       <c r="O7">
-        <v>2.23</v>
+        <v>1.798</v>
       </c>
       <c r="P7">
-        <v>1.849</v>
+        <v>67.247</v>
       </c>
       <c r="Q7">
-        <v>1.798</v>
+        <v>37.395000000000003</v>
       </c>
       <c r="R7">
-        <v>67.247</v>
+        <v>7.4279999999999999</v>
       </c>
       <c r="S7">
-        <v>37.395000000000003</v>
+        <v>769.85299999999995</v>
       </c>
       <c r="T7">
-        <v>7.4279999999999999</v>
+        <v>96.486000000000004</v>
       </c>
       <c r="U7">
-        <v>769.85299999999995</v>
+        <v>10.364000000000001</v>
       </c>
       <c r="V7">
-        <v>96.486000000000004</v>
+        <v>1.7350000000000001</v>
       </c>
       <c r="W7">
-        <v>10.364000000000001</v>
+        <v>0.10211356000000001</v>
       </c>
       <c r="X7">
-        <v>1.7350000000000001</v>
+        <v>5.1049932980000001</v>
       </c>
       <c r="Y7">
-        <v>0.10211356000000001</v>
-      </c>
-      <c r="Z7">
-        <v>5.1049932980000001</v>
-      </c>
-      <c r="AA7">
         <v>0.248853887</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
         <v>36</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>38</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1190,69 +1142,63 @@
         <v>12.548</v>
       </c>
       <c r="O8">
-        <v>4.9829999999999997</v>
+        <v>1.81</v>
       </c>
       <c r="P8">
-        <v>2.2999999999999998</v>
+        <v>49.4</v>
       </c>
       <c r="Q8">
-        <v>1.81</v>
+        <v>27.292999999999999</v>
       </c>
       <c r="R8">
-        <v>49.4</v>
+        <v>2.0259999999999998</v>
       </c>
       <c r="S8">
-        <v>27.292999999999999</v>
+        <v>201.345</v>
       </c>
       <c r="T8">
-        <v>2.0259999999999998</v>
+        <v>100.61799999999999</v>
       </c>
       <c r="U8">
-        <v>201.345</v>
+        <v>9.9390000000000001</v>
       </c>
       <c r="V8">
-        <v>100.61799999999999</v>
+        <v>1.821</v>
       </c>
       <c r="W8">
-        <v>9.9390000000000001</v>
+        <v>0.10615199</v>
       </c>
       <c r="X8">
-        <v>1.821</v>
+        <v>4.2560000000000002</v>
       </c>
       <c r="Y8">
-        <v>0.10615199</v>
-      </c>
-      <c r="Z8">
-        <v>4.2560000000000002</v>
-      </c>
-      <c r="AA8">
         <v>0.83599999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
         <v>36</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>38</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1273,69 +1219,63 @@
         <v>8.9250000000000007</v>
       </c>
       <c r="O9">
-        <v>3.8220000000000001</v>
+        <v>2.23</v>
       </c>
       <c r="P9">
-        <v>1.837</v>
+        <v>52.13</v>
       </c>
       <c r="Q9">
-        <v>2.23</v>
+        <v>23.376999999999999</v>
       </c>
       <c r="R9">
-        <v>52.13</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="S9">
-        <v>23.376999999999999</v>
+        <v>172.75</v>
       </c>
       <c r="T9">
-        <v>0.86699999999999999</v>
+        <v>50.177</v>
       </c>
       <c r="U9">
-        <v>172.75</v>
+        <v>19.93</v>
       </c>
       <c r="V9">
-        <v>50.177</v>
+        <v>1.119</v>
       </c>
       <c r="W9">
-        <v>19.93</v>
+        <v>6.2921958E-2</v>
       </c>
       <c r="X9">
-        <v>1.119</v>
+        <v>2.6153014830000001</v>
       </c>
       <c r="Y9">
-        <v>6.2921958E-2</v>
-      </c>
-      <c r="Z9">
-        <v>2.6153014830000001</v>
-      </c>
-      <c r="AA9">
         <v>0.51371993400000004</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
         <v>36</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>38</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1356,69 +1296,63 @@
         <v>14.063000000000001</v>
       </c>
       <c r="O10">
-        <v>4.2430000000000003</v>
+        <v>2.02</v>
       </c>
       <c r="P10">
-        <v>1.92</v>
+        <v>50.765000000000001</v>
       </c>
       <c r="Q10">
-        <v>2.02</v>
+        <v>25.131</v>
       </c>
       <c r="R10">
-        <v>50.765000000000001</v>
+        <v>1.446</v>
       </c>
       <c r="S10">
-        <v>25.131</v>
+        <v>191.83</v>
       </c>
       <c r="T10">
-        <v>1.446</v>
+        <v>75.397999999999996</v>
       </c>
       <c r="U10">
-        <v>191.83</v>
+        <v>13.263</v>
       </c>
       <c r="V10">
-        <v>75.397999999999996</v>
+        <v>1.5229999999999999</v>
       </c>
       <c r="W10">
-        <v>13.263</v>
+        <v>8.5639090000000001E-2</v>
       </c>
       <c r="X10">
-        <v>1.5229999999999999</v>
+        <v>3.5595211419999999</v>
       </c>
       <c r="Y10">
-        <v>8.5639090000000001E-2</v>
-      </c>
-      <c r="Z10">
-        <v>3.5595211419999999</v>
-      </c>
-      <c r="AA10">
         <v>0.69919165299999997</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
         <v>36</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>38</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1439,69 +1373,63 @@
         <v>5.516</v>
       </c>
       <c r="O11">
-        <v>1.492</v>
+        <v>4.3339999999999996</v>
       </c>
       <c r="P11">
-        <v>1.0169999999999999</v>
+        <v>56.481000000000002</v>
       </c>
       <c r="Q11">
-        <v>4.3339999999999996</v>
+        <v>13.032999999999999</v>
       </c>
       <c r="R11">
-        <v>56.481000000000002</v>
+        <v>1.109</v>
       </c>
       <c r="S11">
-        <v>13.032999999999999</v>
+        <v>561.28800000000001</v>
       </c>
       <c r="T11">
-        <v>1.109</v>
+        <v>19.759</v>
       </c>
       <c r="U11">
-        <v>561.28800000000001</v>
+        <v>50.609000000000002</v>
       </c>
       <c r="V11">
-        <v>19.759</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="W11">
-        <v>50.609000000000002</v>
+        <v>4.8133330000000002E-2</v>
       </c>
       <c r="X11">
-        <v>0.85599999999999998</v>
+        <v>2.4957504589999999</v>
       </c>
       <c r="Y11">
-        <v>4.8133330000000002E-2</v>
-      </c>
-      <c r="Z11">
-        <v>2.4957504589999999</v>
-      </c>
-      <c r="AA11">
         <v>0.42250275199999998</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
         <v>36</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12" t="s">
-        <v>38</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1522,69 +1450,63 @@
         <v>2.1360000000000001</v>
       </c>
       <c r="O12">
-        <v>0.499</v>
+        <v>2.6930000000000001</v>
       </c>
       <c r="P12">
-        <v>0.40300000000000002</v>
+        <v>44.655999999999999</v>
       </c>
       <c r="Q12">
-        <v>2.6930000000000001</v>
+        <v>16.582000000000001</v>
       </c>
       <c r="R12">
-        <v>44.655999999999999</v>
+        <v>1.153</v>
       </c>
       <c r="S12">
-        <v>16.582000000000001</v>
+        <v>285.05700000000002</v>
       </c>
       <c r="T12">
-        <v>1.153</v>
+        <v>40.456000000000003</v>
       </c>
       <c r="U12">
-        <v>285.05700000000002</v>
+        <v>24.718</v>
       </c>
       <c r="V12">
-        <v>40.456000000000003</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="W12">
-        <v>24.718</v>
+        <v>6.1291273E-2</v>
       </c>
       <c r="X12">
-        <v>1.0900000000000001</v>
+        <v>3.1779999999999999</v>
       </c>
       <c r="Y12">
-        <v>6.1291273E-2</v>
-      </c>
-      <c r="Z12">
-        <v>3.1779999999999999</v>
-      </c>
-      <c r="AA12">
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
         <v>36</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13" t="s">
-        <v>38</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1605,69 +1527,63 @@
         <v>5.391</v>
       </c>
       <c r="O13">
-        <v>1.3029999999999999</v>
+        <v>3.1520000000000001</v>
       </c>
       <c r="P13">
-        <v>1.05</v>
+        <v>34.761000000000003</v>
       </c>
       <c r="Q13">
-        <v>3.1520000000000001</v>
+        <v>11.026999999999999</v>
       </c>
       <c r="R13">
-        <v>34.761000000000003</v>
+        <v>1.3779999999999999</v>
       </c>
       <c r="S13">
-        <v>11.026999999999999</v>
+        <v>339.4</v>
       </c>
       <c r="T13">
-        <v>1.3779999999999999</v>
+        <v>40.597999999999999</v>
       </c>
       <c r="U13">
-        <v>339.4</v>
+        <v>24.632000000000001</v>
       </c>
       <c r="V13">
-        <v>40.597999999999999</v>
+        <v>1.28</v>
       </c>
       <c r="W13">
-        <v>24.632000000000001</v>
+        <v>7.1975073000000001E-2</v>
       </c>
       <c r="X13">
-        <v>1.28</v>
+        <v>3.7319633030000001</v>
       </c>
       <c r="Y13">
-        <v>7.1975073000000001E-2</v>
-      </c>
-      <c r="Z13">
-        <v>3.7319633030000001</v>
-      </c>
-      <c r="AA13">
         <v>0.63177981699999997</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1688,69 +1604,63 @@
         <v>2.012</v>
       </c>
       <c r="O14">
-        <v>0.73699999999999999</v>
+        <v>2.94</v>
       </c>
       <c r="P14">
-        <v>0.373</v>
+        <v>55.5</v>
       </c>
       <c r="Q14">
-        <v>2.94</v>
+        <v>18.878</v>
       </c>
       <c r="R14">
-        <v>55.5</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="S14">
-        <v>18.878</v>
+        <v>119.105</v>
       </c>
       <c r="T14">
-        <v>0.68200000000000005</v>
+        <v>57.244</v>
       </c>
       <c r="U14">
-        <v>119.105</v>
+        <v>17.469000000000001</v>
       </c>
       <c r="V14">
-        <v>57.244</v>
+        <v>1.6830000000000001</v>
       </c>
       <c r="W14">
-        <v>17.469000000000001</v>
+        <v>7.1554999999999994E-2</v>
       </c>
       <c r="X14">
-        <v>1.6830000000000001</v>
+        <v>13.305</v>
       </c>
       <c r="Y14">
-        <v>7.1554999999999994E-2</v>
-      </c>
-      <c r="Z14">
-        <v>13.305</v>
-      </c>
-      <c r="AA14">
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
         <v>41</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1771,69 +1681,63 @@
         <v>6.2759999999999998</v>
       </c>
       <c r="O15">
-        <v>1.657</v>
+        <v>3.15</v>
       </c>
       <c r="P15">
-        <v>0.86799999999999999</v>
+        <v>56.5</v>
       </c>
       <c r="Q15">
-        <v>3.15</v>
+        <v>17.937000000000001</v>
       </c>
       <c r="R15">
-        <v>56.5</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="S15">
-        <v>17.937000000000001</v>
+        <v>59.694000000000003</v>
       </c>
       <c r="T15">
-        <v>0.30499999999999999</v>
+        <v>51.06</v>
       </c>
       <c r="U15">
-        <v>59.694000000000003</v>
+        <v>19.585000000000001</v>
       </c>
       <c r="V15">
-        <v>51.06</v>
+        <v>1.6080000000000001</v>
       </c>
       <c r="W15">
-        <v>19.585000000000001</v>
+        <v>7.3015800000000006E-2</v>
       </c>
       <c r="X15">
-        <v>1.6080000000000001</v>
+        <v>17.734999999999999</v>
       </c>
       <c r="Y15">
-        <v>7.3015800000000006E-2</v>
-      </c>
-      <c r="Z15">
-        <v>17.734999999999999</v>
-      </c>
-      <c r="AA15">
         <v>0.68</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
         <v>41</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1854,69 +1758,63 @@
         <v>4.1440000000000001</v>
       </c>
       <c r="O16">
-        <v>1.1970000000000001</v>
+        <v>3.0449999999999999</v>
       </c>
       <c r="P16">
-        <v>0.62050000000000005</v>
+        <v>56</v>
       </c>
       <c r="Q16">
-        <v>3.0449999999999999</v>
+        <v>18.407499999999999</v>
       </c>
       <c r="R16">
-        <v>56</v>
+        <v>0.49349999999999999</v>
       </c>
       <c r="S16">
-        <v>18.407499999999999</v>
+        <v>89.399500000000003</v>
       </c>
       <c r="T16">
-        <v>0.49349999999999999</v>
+        <v>54.152000000000001</v>
       </c>
       <c r="U16">
-        <v>89.399500000000003</v>
+        <v>18.527000000000001</v>
       </c>
       <c r="V16">
-        <v>54.152000000000001</v>
+        <v>1.6455</v>
       </c>
       <c r="W16">
-        <v>18.527000000000001</v>
+        <v>7.0397600000000005E-2</v>
       </c>
       <c r="X16">
-        <v>1.6455</v>
+        <v>18.148596080000001</v>
       </c>
       <c r="Y16">
-        <v>7.0397600000000005E-2</v>
-      </c>
-      <c r="Z16">
-        <v>18.148596080000001</v>
-      </c>
-      <c r="AA16">
         <v>0.69585820899999995</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
         <v>41</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" t="s">
-        <v>44</v>
       </c>
       <c r="E17">
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G17">
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1937,69 +1835,63 @@
         <v>2.38</v>
       </c>
       <c r="O17">
-        <v>0.437</v>
+        <v>3.23</v>
       </c>
       <c r="P17">
-        <v>0.41099999999999998</v>
+        <v>68.593999999999994</v>
       </c>
       <c r="Q17">
-        <v>3.23</v>
+        <v>21.239000000000001</v>
       </c>
       <c r="R17">
-        <v>68.593999999999994</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="S17">
-        <v>21.239000000000001</v>
+        <v>83</v>
       </c>
       <c r="T17">
-        <v>0.38100000000000001</v>
+        <v>45.869</v>
       </c>
       <c r="U17">
-        <v>83</v>
+        <v>21.800999999999998</v>
       </c>
       <c r="V17">
-        <v>45.869</v>
+        <v>1.4810000000000001</v>
       </c>
       <c r="W17">
-        <v>21.800999999999998</v>
+        <v>7.2698209E-2</v>
       </c>
       <c r="X17">
-        <v>1.4810000000000001</v>
+        <v>14</v>
       </c>
       <c r="Y17">
-        <v>7.2698209E-2</v>
-      </c>
-      <c r="Z17">
-        <v>14</v>
-      </c>
-      <c r="AA17">
         <v>1.28</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
         <v>41</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
       </c>
       <c r="E18">
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -2020,69 +1912,63 @@
         <v>6.1349999999999998</v>
       </c>
       <c r="O18">
-        <v>1.881</v>
+        <v>2.5270000000000001</v>
       </c>
       <c r="P18">
-        <v>0.7</v>
+        <v>57.393999999999998</v>
       </c>
       <c r="Q18">
-        <v>2.5270000000000001</v>
+        <v>22.712</v>
       </c>
       <c r="R18">
-        <v>57.393999999999998</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="S18">
-        <v>22.712</v>
+        <v>76.376999999999995</v>
       </c>
       <c r="T18">
-        <v>0.39400000000000002</v>
+        <v>51.618000000000002</v>
       </c>
       <c r="U18">
-        <v>76.376999999999995</v>
+        <v>19.373000000000001</v>
       </c>
       <c r="V18">
-        <v>51.618000000000002</v>
+        <v>1.304</v>
       </c>
       <c r="W18">
-        <v>19.373000000000001</v>
+        <v>6.4009766999999995E-2</v>
       </c>
       <c r="X18">
-        <v>1.304</v>
+        <v>7.76</v>
       </c>
       <c r="Y18">
-        <v>6.4009766999999995E-2</v>
-      </c>
-      <c r="Z18">
-        <v>7.76</v>
-      </c>
-      <c r="AA18">
         <v>1.91</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
       </c>
       <c r="E19">
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -2103,69 +1989,63 @@
         <v>5.8979999999999997</v>
       </c>
       <c r="O19">
-        <v>1.968</v>
+        <v>2.98</v>
       </c>
       <c r="P19">
-        <v>0.98099999999999998</v>
+        <v>55.57</v>
       </c>
       <c r="Q19">
-        <v>2.98</v>
+        <v>18.648</v>
       </c>
       <c r="R19">
-        <v>55.57</v>
+        <v>0.372</v>
       </c>
       <c r="S19">
-        <v>18.648</v>
+        <v>73.659000000000006</v>
       </c>
       <c r="T19">
-        <v>0.372</v>
+        <v>50.53</v>
       </c>
       <c r="U19">
-        <v>73.659000000000006</v>
+        <v>19.79</v>
       </c>
       <c r="V19">
-        <v>50.53</v>
+        <v>1.506</v>
       </c>
       <c r="W19">
-        <v>19.79</v>
+        <v>7.3925389999999994E-2</v>
       </c>
       <c r="X19">
-        <v>1.506</v>
+        <v>8.9620858900000009</v>
       </c>
       <c r="Y19">
-        <v>7.3925389999999994E-2</v>
-      </c>
-      <c r="Z19">
-        <v>8.9620858900000009</v>
-      </c>
-      <c r="AA19">
         <v>2.2058742329999999</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" t="s">
-        <v>44</v>
       </c>
       <c r="E20">
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -2186,69 +2066,63 @@
         <v>1.4650000000000001</v>
       </c>
       <c r="O20">
-        <v>1.117</v>
+        <v>2.85</v>
       </c>
       <c r="P20">
-        <v>0.371</v>
+        <v>56.3</v>
       </c>
       <c r="Q20">
-        <v>2.85</v>
+        <v>19.754000000000001</v>
       </c>
       <c r="R20">
-        <v>56.3</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="S20">
-        <v>19.754000000000001</v>
+        <v>147.61699999999999</v>
       </c>
       <c r="T20">
-        <v>0.58199999999999996</v>
+        <v>39.399000000000001</v>
       </c>
       <c r="U20">
-        <v>147.61699999999999</v>
+        <v>25.381</v>
       </c>
       <c r="V20">
-        <v>39.399000000000001</v>
+        <v>1.123</v>
       </c>
       <c r="W20">
-        <v>25.381</v>
+        <v>5.1218699999999999E-2</v>
       </c>
       <c r="X20">
-        <v>1.123</v>
+        <v>12.08177184</v>
       </c>
       <c r="Y20">
-        <v>5.1218699999999999E-2</v>
-      </c>
-      <c r="Z20">
-        <v>12.08177184</v>
-      </c>
-      <c r="AA20">
         <v>1.2707327850000001</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
         <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
       </c>
       <c r="E21">
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -2269,69 +2143,63 @@
         <v>1.3879999999999999</v>
       </c>
       <c r="O21">
-        <v>0.85399999999999998</v>
+        <v>3.4569999999999999</v>
       </c>
       <c r="P21">
-        <v>0.19600000000000001</v>
+        <v>35.362000000000002</v>
       </c>
       <c r="Q21">
-        <v>3.4569999999999999</v>
+        <v>10.228</v>
       </c>
       <c r="R21">
-        <v>35.362000000000002</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="S21">
-        <v>10.228</v>
+        <v>113.16200000000001</v>
       </c>
       <c r="T21">
-        <v>0.59699999999999998</v>
+        <v>52.725999999999999</v>
       </c>
       <c r="U21">
-        <v>113.16200000000001</v>
+        <v>18.966000000000001</v>
       </c>
       <c r="V21">
-        <v>52.725999999999999</v>
+        <v>1.823</v>
       </c>
       <c r="W21">
-        <v>18.966000000000001</v>
+        <v>8.6312078E-2</v>
       </c>
       <c r="X21">
-        <v>1.823</v>
+        <v>19.612707090000001</v>
       </c>
       <c r="Y21">
-        <v>8.6312078E-2</v>
-      </c>
-      <c r="Z21">
-        <v>19.612707090000001</v>
-      </c>
-      <c r="AA21">
         <v>2.062819116</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
         <v>41</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>42</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" t="s">
-        <v>44</v>
       </c>
       <c r="E22">
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -2352,69 +2220,63 @@
         <v>0.99199999999999999</v>
       </c>
       <c r="O22">
-        <v>0.76900000000000002</v>
+        <v>2.76</v>
       </c>
       <c r="P22">
-        <v>0.16800000000000001</v>
+        <v>55.03</v>
       </c>
       <c r="Q22">
-        <v>2.76</v>
+        <v>19.937999999999999</v>
       </c>
       <c r="R22">
-        <v>55.03</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="S22">
-        <v>19.937999999999999</v>
+        <v>259.56599999999997</v>
       </c>
       <c r="T22">
-        <v>0.91500000000000004</v>
+        <v>35.247</v>
       </c>
       <c r="U22">
-        <v>259.56599999999997</v>
+        <v>28.370999999999999</v>
       </c>
       <c r="V22">
-        <v>35.247</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="W22">
-        <v>28.370999999999999</v>
+        <v>4.6067828999999998E-2</v>
       </c>
       <c r="X22">
-        <v>0.97299999999999998</v>
+        <v>10.468</v>
       </c>
       <c r="Y22">
-        <v>4.6067828999999998E-2</v>
-      </c>
-      <c r="Z22">
-        <v>10.468</v>
-      </c>
-      <c r="AA22">
         <v>1.101</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
         <v>42</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" t="s">
-        <v>44</v>
       </c>
       <c r="E23">
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2435,69 +2297,63 @@
         <v>9.6219999999999999</v>
       </c>
       <c r="O23">
-        <v>3.093</v>
+        <v>3.43</v>
       </c>
       <c r="P23">
-        <v>1.4139999999999999</v>
+        <v>57.69</v>
       </c>
       <c r="Q23">
-        <v>3.43</v>
+        <v>16.818999999999999</v>
       </c>
       <c r="R23">
-        <v>57.69</v>
+        <v>0.623</v>
       </c>
       <c r="S23">
-        <v>16.818999999999999</v>
+        <v>104.98</v>
       </c>
       <c r="T23">
-        <v>0.623</v>
+        <v>59.363999999999997</v>
       </c>
       <c r="U23">
-        <v>104.98</v>
+        <v>16.844999999999999</v>
       </c>
       <c r="V23">
-        <v>59.363999999999997</v>
+        <v>2.036</v>
       </c>
       <c r="W23">
-        <v>16.844999999999999</v>
+        <v>0.10388699999999999</v>
       </c>
       <c r="X23">
-        <v>2.036</v>
+        <v>13.09</v>
       </c>
       <c r="Y23">
-        <v>0.10388699999999999</v>
-      </c>
-      <c r="Z23">
-        <v>13.09</v>
-      </c>
-      <c r="AA23">
         <v>1.5269999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
         <v>42</v>
-      </c>
-      <c r="C24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" t="s">
-        <v>44</v>
       </c>
       <c r="E24">
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2518,69 +2374,63 @@
         <v>9.5884999999999998</v>
       </c>
       <c r="O24">
-        <v>2.7850000000000001</v>
+        <v>3.4380000000000002</v>
       </c>
       <c r="P24">
-        <v>1.3620000000000001</v>
+        <v>60.138500000000001</v>
       </c>
       <c r="Q24">
-        <v>3.4380000000000002</v>
+        <v>17.4895</v>
       </c>
       <c r="R24">
-        <v>60.138500000000001</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="S24">
-        <v>17.4895</v>
+        <v>94.491500000000002</v>
       </c>
       <c r="T24">
-        <v>0.55000000000000004</v>
+        <v>58.095999999999997</v>
       </c>
       <c r="U24">
-        <v>94.491500000000002</v>
+        <v>17.221</v>
       </c>
       <c r="V24">
-        <v>58.095999999999997</v>
+        <v>1.9975000000000001</v>
       </c>
       <c r="W24">
-        <v>17.221</v>
+        <v>0.10192253599999999</v>
       </c>
       <c r="X24">
-        <v>1.9975000000000001</v>
+        <v>14.51</v>
       </c>
       <c r="Y24">
-        <v>0.10192253599999999</v>
-      </c>
-      <c r="Z24">
-        <v>14.51</v>
-      </c>
-      <c r="AA24">
         <v>1.22</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
         <v>42</v>
-      </c>
-      <c r="C25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" t="s">
-        <v>44</v>
       </c>
       <c r="E25">
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -2601,69 +2451,63 @@
         <v>9.5549999999999997</v>
       </c>
       <c r="O25">
-        <v>2.4769999999999999</v>
+        <v>3.4460000000000002</v>
       </c>
       <c r="P25">
-        <v>1.31</v>
+        <v>62.587000000000003</v>
       </c>
       <c r="Q25">
-        <v>3.4460000000000002</v>
+        <v>18.16</v>
       </c>
       <c r="R25">
-        <v>62.587000000000003</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="S25">
-        <v>18.16</v>
+        <v>84.003</v>
       </c>
       <c r="T25">
-        <v>0.47699999999999998</v>
+        <v>56.828000000000003</v>
       </c>
       <c r="U25">
-        <v>84.003</v>
+        <v>17.597000000000001</v>
       </c>
       <c r="V25">
-        <v>56.828000000000003</v>
+        <v>1.9590000000000001</v>
       </c>
       <c r="W25">
-        <v>17.597000000000001</v>
+        <v>9.9958070999999996E-2</v>
       </c>
       <c r="X25">
-        <v>1.9590000000000001</v>
+        <v>14.23033292</v>
       </c>
       <c r="Y25">
-        <v>9.9958070999999996E-2</v>
-      </c>
-      <c r="Z25">
-        <v>14.23033292</v>
-      </c>
-      <c r="AA25">
         <v>1.1964856070000001</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
         <v>42</v>
-      </c>
-      <c r="C26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" t="s">
-        <v>44</v>
       </c>
       <c r="E26">
         <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -2684,69 +2528,63 @@
         <v>2.4350000000000001</v>
       </c>
       <c r="O26">
-        <v>1.1659999999999999</v>
+        <v>2.9849999999999999</v>
       </c>
       <c r="P26">
-        <v>0.36299999999999999</v>
+        <v>48.402000000000001</v>
       </c>
       <c r="Q26">
-        <v>2.9849999999999999</v>
+        <v>16.213999999999999</v>
       </c>
       <c r="R26">
-        <v>48.402000000000001</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="S26">
-        <v>16.213999999999999</v>
+        <v>92.942999999999998</v>
       </c>
       <c r="T26">
-        <v>0.46800000000000003</v>
+        <v>50.387999999999998</v>
       </c>
       <c r="U26">
-        <v>92.942999999999998</v>
+        <v>19.846</v>
       </c>
       <c r="V26">
-        <v>50.387999999999998</v>
+        <v>1.504</v>
       </c>
       <c r="W26">
-        <v>19.846</v>
+        <v>7.4013926999999993E-2</v>
       </c>
       <c r="X26">
-        <v>1.504</v>
+        <v>11.88723514</v>
       </c>
       <c r="Y26">
-        <v>7.4013926999999993E-2</v>
-      </c>
-      <c r="Z26">
-        <v>11.88723514</v>
-      </c>
-      <c r="AA26">
         <v>0.59266149899999998</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
         <v>42</v>
-      </c>
-      <c r="C27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" t="s">
-        <v>44</v>
       </c>
       <c r="E27">
         <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -2767,69 +2605,63 @@
         <v>2.7610000000000001</v>
       </c>
       <c r="O27">
-        <v>0.9</v>
+        <v>3.27</v>
       </c>
       <c r="P27">
-        <v>0.497</v>
+        <v>62.988999999999997</v>
       </c>
       <c r="Q27">
-        <v>3.27</v>
+        <v>19.263999999999999</v>
       </c>
       <c r="R27">
-        <v>62.988999999999997</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="S27">
-        <v>19.263999999999999</v>
+        <v>149.82599999999999</v>
       </c>
       <c r="T27">
-        <v>0.50600000000000001</v>
+        <v>33.744999999999997</v>
       </c>
       <c r="U27">
-        <v>149.82599999999999</v>
+        <v>29.634</v>
       </c>
       <c r="V27">
-        <v>33.744999999999997</v>
+        <v>1.103</v>
       </c>
       <c r="W27">
-        <v>29.634</v>
+        <v>5.4280161E-2</v>
       </c>
       <c r="X27">
-        <v>1.103</v>
+        <v>8.7178326869999996</v>
       </c>
       <c r="Y27">
-        <v>5.4280161E-2</v>
-      </c>
-      <c r="Z27">
-        <v>8.7178326869999996</v>
-      </c>
-      <c r="AA27">
         <v>0.43464470300000002</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
         <v>42</v>
-      </c>
-      <c r="C28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" t="s">
-        <v>44</v>
       </c>
       <c r="E28">
         <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G28">
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -2850,69 +2682,63 @@
         <v>2.819</v>
       </c>
       <c r="O28">
-        <v>1.107</v>
+        <v>3.39</v>
       </c>
       <c r="P28">
-        <v>0.45400000000000001</v>
+        <v>56.56</v>
       </c>
       <c r="Q28">
-        <v>3.39</v>
+        <v>16.684000000000001</v>
       </c>
       <c r="R28">
-        <v>56.56</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="S28">
-        <v>16.684000000000001</v>
+        <v>97.587999999999994</v>
       </c>
       <c r="T28">
-        <v>0.44600000000000001</v>
+        <v>45.670999999999999</v>
       </c>
       <c r="U28">
-        <v>97.587999999999994</v>
+        <v>21.896000000000001</v>
       </c>
       <c r="V28">
-        <v>45.670999999999999</v>
+        <v>1.548</v>
       </c>
       <c r="W28">
-        <v>21.896000000000001</v>
+        <v>7.6179228000000002E-2</v>
       </c>
       <c r="X28">
-        <v>1.548</v>
+        <v>12.234999999999999</v>
       </c>
       <c r="Y28">
-        <v>7.6179228000000002E-2</v>
-      </c>
-      <c r="Z28">
-        <v>12.234999999999999</v>
-      </c>
-      <c r="AA28">
         <v>0.61</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
         <v>42</v>
-      </c>
-      <c r="C29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" t="s">
-        <v>44</v>
       </c>
       <c r="E29">
         <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -2933,69 +2759,63 @@
         <v>3.5539999999999998</v>
       </c>
       <c r="O29">
-        <v>0.39700000000000002</v>
+        <v>3.58</v>
       </c>
       <c r="P29">
-        <v>0.66600000000000004</v>
+        <v>54.83</v>
       </c>
       <c r="Q29">
-        <v>3.58</v>
+        <v>15.316000000000001</v>
       </c>
       <c r="R29">
-        <v>54.83</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="S29">
-        <v>15.316000000000001</v>
+        <v>164.56899999999999</v>
       </c>
       <c r="T29">
-        <v>0.40300000000000002</v>
+        <v>24.47</v>
       </c>
       <c r="U29">
-        <v>164.56899999999999</v>
+        <v>40.866</v>
       </c>
       <c r="V29">
-        <v>24.47</v>
+        <v>0.876</v>
       </c>
       <c r="W29">
-        <v>40.866</v>
+        <v>4.0889370000000001E-2</v>
       </c>
       <c r="X29">
-        <v>0.876</v>
+        <v>19.02</v>
       </c>
       <c r="Y29">
-        <v>4.0889370000000001E-2</v>
-      </c>
-      <c r="Z29">
-        <v>19.02</v>
-      </c>
-      <c r="AA29">
         <v>1.6930000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" t="s">
         <v>42</v>
-      </c>
-      <c r="C30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" t="s">
-        <v>44</v>
       </c>
       <c r="E30">
         <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -3016,69 +2836,63 @@
         <v>4.3220000000000001</v>
       </c>
       <c r="O30">
-        <v>0.29299999999999998</v>
+        <v>3.8109999999999999</v>
       </c>
       <c r="P30">
-        <v>0.54600000000000004</v>
+        <v>60.723999999999997</v>
       </c>
       <c r="Q30">
-        <v>3.8109999999999999</v>
+        <v>15.935</v>
       </c>
       <c r="R30">
-        <v>60.723999999999997</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="S30">
-        <v>15.935</v>
+        <v>194.15299999999999</v>
       </c>
       <c r="T30">
-        <v>0.34100000000000003</v>
+        <v>17.545000000000002</v>
       </c>
       <c r="U30">
-        <v>194.15299999999999</v>
+        <v>56.997999999999998</v>
       </c>
       <c r="V30">
-        <v>17.545000000000002</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="W30">
-        <v>56.997999999999998</v>
+        <v>3.1227155999999999E-2</v>
       </c>
       <c r="X30">
-        <v>0.66900000000000004</v>
+        <v>21.86</v>
       </c>
       <c r="Y30">
-        <v>3.1227155999999999E-2</v>
-      </c>
-      <c r="Z30">
-        <v>21.86</v>
-      </c>
-      <c r="AA30">
         <v>0.56399999999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
         <v>42</v>
-      </c>
-      <c r="C31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" t="s">
-        <v>44</v>
       </c>
       <c r="E31">
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -3099,69 +2913,63 @@
         <v>2.9</v>
       </c>
       <c r="O31">
-        <v>0.47799999999999998</v>
+        <v>3.843</v>
       </c>
       <c r="P31">
-        <v>0.72099999999999997</v>
+        <v>58.277999999999999</v>
       </c>
       <c r="Q31">
-        <v>3.843</v>
+        <v>15.164999999999999</v>
       </c>
       <c r="R31">
-        <v>58.277999999999999</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="S31">
-        <v>15.164999999999999</v>
+        <v>285.601</v>
       </c>
       <c r="T31">
-        <v>0.40799999999999997</v>
+        <v>14.288</v>
       </c>
       <c r="U31">
-        <v>285.601</v>
+        <v>69.986999999999995</v>
       </c>
       <c r="V31">
-        <v>14.288</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="W31">
-        <v>69.986999999999995</v>
+        <v>2.5625872000000001E-2</v>
       </c>
       <c r="X31">
-        <v>0.54900000000000004</v>
+        <v>17.938923769999999</v>
       </c>
       <c r="Y31">
-        <v>2.5625872000000001E-2</v>
-      </c>
-      <c r="Z31">
-        <v>17.938923769999999</v>
-      </c>
-      <c r="AA31">
         <v>0.46283408100000001</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
         <v>46</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
         <v>47</v>
-      </c>
-      <c r="C32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" t="s">
-        <v>49</v>
       </c>
       <c r="E32">
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G32">
         <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -3182,69 +2990,63 @@
         <v>0.63800000000000001</v>
       </c>
       <c r="O32">
-        <v>0.16800000000000001</v>
+        <v>2.36</v>
       </c>
       <c r="P32">
-        <v>0.12</v>
+        <v>56.1</v>
       </c>
       <c r="Q32">
-        <v>2.36</v>
+        <v>23.771000000000001</v>
       </c>
       <c r="R32">
-        <v>56.1</v>
+        <v>1.585</v>
       </c>
       <c r="S32">
-        <v>23.771000000000001</v>
+        <v>478.30799999999999</v>
       </c>
       <c r="T32">
-        <v>1.585</v>
+        <v>33.127000000000002</v>
       </c>
       <c r="U32">
-        <v>478.30799999999999</v>
+        <v>30.187000000000001</v>
       </c>
       <c r="V32">
-        <v>33.127000000000002</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="W32">
-        <v>30.187000000000001</v>
+        <v>5.5984630000000001E-2</v>
       </c>
       <c r="X32">
-        <v>0.78200000000000003</v>
+        <v>3.3537015829999999</v>
       </c>
       <c r="Y32">
-        <v>5.5984630000000001E-2</v>
-      </c>
-      <c r="Z32">
-        <v>3.3537015829999999</v>
-      </c>
-      <c r="AA32">
         <v>0.13259231299999999</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
         <v>46</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D33" t="s">
         <v>47</v>
-      </c>
-      <c r="C33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" t="s">
-        <v>49</v>
       </c>
       <c r="E33">
         <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G33">
         <v>2</v>
       </c>
       <c r="H33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -3265,69 +3067,63 @@
         <v>0.65200000000000002</v>
       </c>
       <c r="O33">
-        <v>0.30299999999999999</v>
+        <v>2.831</v>
       </c>
       <c r="P33">
-        <v>0.122</v>
+        <v>61.930999999999997</v>
       </c>
       <c r="Q33">
-        <v>2.831</v>
+        <v>21.88</v>
       </c>
       <c r="R33">
-        <v>61.930999999999997</v>
+        <v>1.5640000000000001</v>
       </c>
       <c r="S33">
-        <v>21.88</v>
+        <v>447.15800000000002</v>
       </c>
       <c r="T33">
-        <v>1.5640000000000001</v>
+        <v>34.970999999999997</v>
       </c>
       <c r="U33">
-        <v>447.15800000000002</v>
+        <v>28.594999999999999</v>
       </c>
       <c r="V33">
-        <v>34.970999999999997</v>
+        <v>0.99</v>
       </c>
       <c r="W33">
-        <v>28.594999999999999</v>
+        <v>7.0875681999999995E-2</v>
       </c>
       <c r="X33">
-        <v>0.99</v>
+        <v>4.2457347399999996</v>
       </c>
       <c r="Y33">
-        <v>7.0875681999999995E-2</v>
-      </c>
-      <c r="Z33">
-        <v>4.2457347399999996</v>
-      </c>
-      <c r="AA33">
         <v>0.16785983400000001</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
         <v>46</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D34" t="s">
         <v>47</v>
-      </c>
-      <c r="C34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" t="s">
-        <v>49</v>
       </c>
       <c r="E34">
         <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G34">
         <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -3348,69 +3144,63 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="O34">
-        <v>0.21299999999999999</v>
+        <v>2.3420000000000001</v>
       </c>
       <c r="P34">
-        <v>0.10299999999999999</v>
+        <v>65.146000000000001</v>
       </c>
       <c r="Q34">
-        <v>2.3420000000000001</v>
+        <v>27.814</v>
       </c>
       <c r="R34">
-        <v>65.146000000000001</v>
+        <v>2.0550000000000002</v>
       </c>
       <c r="S34">
-        <v>27.814</v>
+        <v>1092.5999999999999</v>
       </c>
       <c r="T34">
-        <v>2.0550000000000002</v>
+        <v>18.812000000000001</v>
       </c>
       <c r="U34">
-        <v>1092.5999999999999</v>
+        <v>53.158000000000001</v>
       </c>
       <c r="V34">
-        <v>18.812000000000001</v>
+        <v>0.441</v>
       </c>
       <c r="W34">
-        <v>53.158000000000001</v>
+        <v>3.1571895000000003E-2</v>
       </c>
       <c r="X34">
-        <v>0.441</v>
+        <v>1.8912818389999999</v>
       </c>
       <c r="Y34">
-        <v>3.1571895000000003E-2</v>
-      </c>
-      <c r="Z34">
-        <v>1.8912818389999999</v>
-      </c>
-      <c r="AA34">
         <v>7.4773926000000004E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
         <v>46</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
         <v>47</v>
-      </c>
-      <c r="C35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" t="s">
-        <v>49</v>
       </c>
       <c r="E35">
         <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -3431,69 +3221,63 @@
         <v>1.754</v>
       </c>
       <c r="O35">
-        <v>0.215</v>
+        <v>2.52</v>
       </c>
       <c r="P35">
-        <v>0.15</v>
+        <v>56.38</v>
       </c>
       <c r="Q35">
-        <v>2.52</v>
+        <v>22.373000000000001</v>
       </c>
       <c r="R35">
-        <v>56.38</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="S35">
-        <v>22.373000000000001</v>
+        <v>85.963999999999999</v>
       </c>
       <c r="T35">
-        <v>0.45300000000000001</v>
+        <v>52.65</v>
       </c>
       <c r="U35">
-        <v>85.963999999999999</v>
+        <v>18.992999999999999</v>
       </c>
       <c r="V35">
-        <v>52.65</v>
+        <v>1.327</v>
       </c>
       <c r="W35">
-        <v>18.992999999999999</v>
+        <v>4.4857800000000003E-2</v>
       </c>
       <c r="X35">
-        <v>1.327</v>
+        <v>5.6909999999999998</v>
       </c>
       <c r="Y35">
-        <v>4.4857800000000003E-2</v>
-      </c>
-      <c r="Z35">
-        <v>5.6909999999999998</v>
-      </c>
-      <c r="AA35">
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
         <v>46</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
         <v>47</v>
-      </c>
-      <c r="C36" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" t="s">
-        <v>49</v>
       </c>
       <c r="E36">
         <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -3514,69 +3298,63 @@
         <v>1.2929999999999999</v>
       </c>
       <c r="O36">
-        <v>0.13</v>
+        <v>2.3039999999999998</v>
       </c>
       <c r="P36">
-        <v>0.08</v>
+        <v>56.408999999999999</v>
       </c>
       <c r="Q36">
-        <v>2.3039999999999998</v>
+        <v>24.481999999999999</v>
       </c>
       <c r="R36">
-        <v>56.408999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="S36">
-        <v>24.481999999999999</v>
+        <v>121.931</v>
       </c>
       <c r="T36">
-        <v>0.49</v>
+        <v>40.177999999999997</v>
       </c>
       <c r="U36">
-        <v>121.931</v>
+        <v>24.888999999999999</v>
       </c>
       <c r="V36">
-        <v>40.177999999999997</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="W36">
-        <v>24.888999999999999</v>
+        <v>3.1302429E-2</v>
       </c>
       <c r="X36">
-        <v>0.92600000000000005</v>
+        <v>3.9712629989999999</v>
       </c>
       <c r="Y36">
-        <v>3.1302429E-2</v>
-      </c>
-      <c r="Z36">
-        <v>3.9712629989999999</v>
-      </c>
-      <c r="AA36">
         <v>0.157008289</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
         <v>46</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D37" t="s">
         <v>47</v>
-      </c>
-      <c r="C37" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" t="s">
-        <v>49</v>
       </c>
       <c r="E37">
         <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -3597,69 +3375,63 @@
         <v>1.4059999999999999</v>
       </c>
       <c r="O37">
-        <v>0.17499999999999999</v>
+        <v>2.88</v>
       </c>
       <c r="P37">
-        <v>0.17299999999999999</v>
+        <v>37.305999999999997</v>
       </c>
       <c r="Q37">
-        <v>2.88</v>
+        <v>12.954000000000001</v>
       </c>
       <c r="R37">
-        <v>37.305999999999997</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="S37">
-        <v>12.954000000000001</v>
+        <v>91.212000000000003</v>
       </c>
       <c r="T37">
-        <v>0.40400000000000003</v>
+        <v>44.276000000000003</v>
       </c>
       <c r="U37">
-        <v>91.212000000000003</v>
+        <v>22.585999999999999</v>
       </c>
       <c r="V37">
-        <v>44.276000000000003</v>
+        <v>1.2749999999999999</v>
       </c>
       <c r="W37">
-        <v>22.585999999999999</v>
+        <v>4.3099996000000002E-2</v>
       </c>
       <c r="X37">
-        <v>1.2749999999999999</v>
+        <v>5.4679917109999998</v>
       </c>
       <c r="Y37">
-        <v>4.3099996000000002E-2</v>
-      </c>
-      <c r="Z37">
-        <v>5.4679917109999998</v>
-      </c>
-      <c r="AA37">
         <v>0.21618312000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
         <v>46</v>
       </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
         <v>47</v>
-      </c>
-      <c r="C38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" t="s">
-        <v>49</v>
       </c>
       <c r="E38">
         <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -3680,69 +3452,63 @@
         <v>10.297000000000001</v>
       </c>
       <c r="O38">
-        <v>5.0919999999999996</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="P38">
-        <v>2.1989999999999998</v>
+        <v>57.52</v>
       </c>
       <c r="Q38">
-        <v>2.1800000000000002</v>
+        <v>26.385000000000002</v>
       </c>
       <c r="R38">
-        <v>57.52</v>
+        <v>2.3660000000000001</v>
       </c>
       <c r="S38">
-        <v>26.385000000000002</v>
+        <v>404.02</v>
       </c>
       <c r="T38">
-        <v>2.3660000000000001</v>
+        <v>58.569000000000003</v>
       </c>
       <c r="U38">
-        <v>404.02</v>
+        <v>17.074000000000002</v>
       </c>
       <c r="V38">
-        <v>58.569000000000003</v>
+        <v>1.2769999999999999</v>
       </c>
       <c r="W38">
-        <v>17.074000000000002</v>
+        <v>5.8861845000000003E-2</v>
       </c>
       <c r="X38">
-        <v>1.2769999999999999</v>
+        <v>12.46</v>
       </c>
       <c r="Y38">
-        <v>5.8861845000000003E-2</v>
-      </c>
-      <c r="Z38">
-        <v>12.46</v>
-      </c>
-      <c r="AA38">
         <v>0.71</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
         <v>46</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
         <v>47</v>
-      </c>
-      <c r="C39" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" t="s">
-        <v>49</v>
       </c>
       <c r="E39">
         <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I39">
         <v>2</v>
@@ -3763,69 +3529,63 @@
         <v>1.4419999999999999</v>
       </c>
       <c r="O39">
-        <v>5.734</v>
+        <v>1.8280000000000001</v>
       </c>
       <c r="P39">
-        <v>0.316</v>
+        <v>70.775000000000006</v>
       </c>
       <c r="Q39">
-        <v>1.8280000000000001</v>
+        <v>38.713000000000001</v>
       </c>
       <c r="R39">
-        <v>70.775000000000006</v>
+        <v>2.9129999999999998</v>
       </c>
       <c r="S39">
-        <v>38.713000000000001</v>
+        <v>350.86099999999999</v>
       </c>
       <c r="T39">
-        <v>2.9129999999999998</v>
+        <v>83.021000000000001</v>
       </c>
       <c r="U39">
-        <v>350.86099999999999</v>
+        <v>12.045</v>
       </c>
       <c r="V39">
-        <v>83.021000000000001</v>
+        <v>1.518</v>
       </c>
       <c r="W39">
-        <v>12.045</v>
+        <v>6.9970462999999997E-2</v>
       </c>
       <c r="X39">
-        <v>1.518</v>
+        <v>9.3460000000000001</v>
       </c>
       <c r="Y39">
-        <v>6.9970462999999997E-2</v>
-      </c>
-      <c r="Z39">
-        <v>9.3460000000000001</v>
-      </c>
-      <c r="AA39">
         <v>0.58599999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
         <v>46</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" t="s">
         <v>47</v>
-      </c>
-      <c r="C40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" t="s">
-        <v>49</v>
       </c>
       <c r="E40">
         <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I40">
         <v>2</v>
@@ -3846,69 +3606,63 @@
         <v>12.926</v>
       </c>
       <c r="O40">
-        <v>5.8810000000000002</v>
+        <v>1.7250000000000001</v>
       </c>
       <c r="P40">
-        <v>2.4300000000000002</v>
+        <v>50.767000000000003</v>
       </c>
       <c r="Q40">
-        <v>1.7250000000000001</v>
+        <v>29.425999999999998</v>
       </c>
       <c r="R40">
-        <v>50.767000000000003</v>
+        <v>2.4260000000000002</v>
       </c>
       <c r="S40">
-        <v>29.425999999999998</v>
+        <v>390.798</v>
       </c>
       <c r="T40">
-        <v>2.4260000000000002</v>
+        <v>62.072000000000003</v>
       </c>
       <c r="U40">
-        <v>390.798</v>
+        <v>16.11</v>
       </c>
       <c r="V40">
-        <v>62.072000000000003</v>
+        <v>1.071</v>
       </c>
       <c r="W40">
-        <v>16.11</v>
+        <v>4.9366512000000001E-2</v>
       </c>
       <c r="X40">
-        <v>1.071</v>
+        <v>6.5939169959999999</v>
       </c>
       <c r="Y40">
-        <v>4.9366512000000001E-2</v>
-      </c>
-      <c r="Z40">
-        <v>6.5939169959999999</v>
-      </c>
-      <c r="AA40">
         <v>0.413442688</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" t="s">
         <v>50</v>
-      </c>
-      <c r="C41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" t="s">
-        <v>52</v>
       </c>
       <c r="E41">
         <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -3929,69 +3683,63 @@
         <v>4.093</v>
       </c>
       <c r="O41">
-        <v>1.4039999999999999</v>
+        <v>2.06</v>
       </c>
       <c r="P41">
-        <v>0.624</v>
+        <v>55.98</v>
       </c>
       <c r="Q41">
-        <v>2.06</v>
+        <v>27.175000000000001</v>
       </c>
       <c r="R41">
-        <v>55.98</v>
+        <v>0.629</v>
       </c>
       <c r="S41">
-        <v>27.175000000000001</v>
+        <v>81.31</v>
       </c>
       <c r="T41">
-        <v>0.629</v>
+        <v>77.296999999999997</v>
       </c>
       <c r="U41">
-        <v>81.31</v>
+        <v>12.936999999999999</v>
       </c>
       <c r="V41">
-        <v>77.296999999999997</v>
+        <v>1.5920000000000001</v>
       </c>
       <c r="W41">
-        <v>12.936999999999999</v>
+        <v>5.5174598999999998E-2</v>
       </c>
       <c r="X41">
-        <v>1.5920000000000001</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="Y41">
-        <v>5.5174598999999998E-2</v>
-      </c>
-      <c r="Z41">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="AA41">
         <v>0.52800000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" t="s">
         <v>50</v>
-      </c>
-      <c r="C42" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" t="s">
-        <v>52</v>
       </c>
       <c r="E42">
         <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -4012,69 +3760,63 @@
         <v>3.427</v>
       </c>
       <c r="O42">
-        <v>1.357</v>
+        <v>1.9350000000000001</v>
       </c>
       <c r="P42">
-        <v>0.53</v>
+        <v>48.679000000000002</v>
       </c>
       <c r="Q42">
-        <v>1.9350000000000001</v>
+        <v>25.161000000000001</v>
       </c>
       <c r="R42">
-        <v>48.679000000000002</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="S42">
-        <v>25.161000000000001</v>
+        <v>130.423</v>
       </c>
       <c r="T42">
-        <v>0.71599999999999997</v>
+        <v>54.911000000000001</v>
       </c>
       <c r="U42">
-        <v>130.423</v>
+        <v>18.210999999999999</v>
       </c>
       <c r="V42">
-        <v>54.911000000000001</v>
+        <v>1.0620000000000001</v>
       </c>
       <c r="W42">
-        <v>18.210999999999999</v>
+        <v>3.6806170999999999E-2</v>
       </c>
       <c r="X42">
-        <v>1.0620000000000001</v>
+        <v>13.11</v>
       </c>
       <c r="Y42">
-        <v>3.6806170999999999E-2</v>
-      </c>
-      <c r="Z42">
-        <v>13.11</v>
-      </c>
-      <c r="AA42">
         <v>0.60899999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" t="s">
         <v>50</v>
-      </c>
-      <c r="C43" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" t="s">
-        <v>52</v>
       </c>
       <c r="E43">
         <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -4095,69 +3837,63 @@
         <v>3.76</v>
       </c>
       <c r="O43">
-        <v>1.3805000000000001</v>
+        <v>1.9975000000000001</v>
       </c>
       <c r="P43">
-        <v>0.57699999999999996</v>
+        <v>52.329500000000003</v>
       </c>
       <c r="Q43">
-        <v>1.9975000000000001</v>
+        <v>26.167999999999999</v>
       </c>
       <c r="R43">
-        <v>52.329500000000003</v>
+        <v>0.67249999999999999</v>
       </c>
       <c r="S43">
-        <v>26.167999999999999</v>
+        <v>105.8665</v>
       </c>
       <c r="T43">
-        <v>0.67249999999999999</v>
+        <v>66.103999999999999</v>
       </c>
       <c r="U43">
-        <v>105.8665</v>
+        <v>15.574</v>
       </c>
       <c r="V43">
-        <v>66.103999999999999</v>
+        <v>1.327</v>
       </c>
       <c r="W43">
-        <v>15.574</v>
+        <v>4.5990385000000002E-2</v>
       </c>
       <c r="X43">
-        <v>1.327</v>
+        <v>16.381327679999998</v>
       </c>
       <c r="Y43">
-        <v>4.5990385000000002E-2</v>
-      </c>
-      <c r="Z43">
-        <v>16.381327679999998</v>
-      </c>
-      <c r="AA43">
         <v>0.76096327699999999</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" t="s">
         <v>50</v>
-      </c>
-      <c r="C44" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" t="s">
-        <v>52</v>
       </c>
       <c r="E44">
         <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G44">
         <v>2</v>
       </c>
       <c r="H44" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -4178,69 +3914,63 @@
         <v>0.64300000000000002</v>
       </c>
       <c r="O44">
-        <v>1.0209999999999999</v>
+        <v>1.71</v>
       </c>
       <c r="P44">
-        <v>0.109</v>
+        <v>54.29</v>
       </c>
       <c r="Q44">
-        <v>1.71</v>
+        <v>31.748999999999999</v>
       </c>
       <c r="R44">
-        <v>54.29</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="S44">
-        <v>31.748999999999999</v>
+        <v>71.659000000000006</v>
       </c>
       <c r="T44">
-        <v>0.41199999999999998</v>
+        <v>57.509</v>
       </c>
       <c r="U44">
-        <v>71.659000000000006</v>
+        <v>17.388999999999999</v>
       </c>
       <c r="V44">
-        <v>57.509</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="W44">
-        <v>17.388999999999999</v>
+        <v>3.8243485000000001E-2</v>
       </c>
       <c r="X44">
-        <v>0.98299999999999998</v>
+        <v>11.79353015</v>
       </c>
       <c r="Y44">
-        <v>3.8243485000000001E-2</v>
-      </c>
-      <c r="Z44">
-        <v>11.79353015</v>
-      </c>
-      <c r="AA44">
         <v>0.32602010100000001</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" t="s">
         <v>50</v>
-      </c>
-      <c r="C45" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" t="s">
-        <v>52</v>
       </c>
       <c r="E45">
         <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G45">
         <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -4261,69 +3991,63 @@
         <v>0.66700000000000004</v>
       </c>
       <c r="O45">
-        <v>1.115</v>
+        <v>1.7270000000000001</v>
       </c>
       <c r="P45">
-        <v>9.8000000000000004E-2</v>
+        <v>74.224999999999994</v>
       </c>
       <c r="Q45">
-        <v>1.7270000000000001</v>
+        <v>42.976999999999997</v>
       </c>
       <c r="R45">
-        <v>74.224999999999994</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="S45">
-        <v>42.976999999999997</v>
+        <v>69.620999999999995</v>
       </c>
       <c r="T45">
-        <v>0.41299999999999998</v>
+        <v>59.290999999999997</v>
       </c>
       <c r="U45">
-        <v>69.620999999999995</v>
+        <v>16.866</v>
       </c>
       <c r="V45">
-        <v>59.290999999999997</v>
+        <v>1.024</v>
       </c>
       <c r="W45">
-        <v>16.866</v>
+        <v>3.9838585000000003E-2</v>
       </c>
       <c r="X45">
-        <v>1.024</v>
+        <v>12.285427139999999</v>
       </c>
       <c r="Y45">
-        <v>3.9838585000000003E-2</v>
-      </c>
-      <c r="Z45">
-        <v>12.285427139999999</v>
-      </c>
-      <c r="AA45">
         <v>0.33961808999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" t="s">
         <v>50</v>
-      </c>
-      <c r="C46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D46" t="s">
-        <v>52</v>
       </c>
       <c r="E46">
         <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G46">
         <v>2</v>
       </c>
       <c r="H46" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -4344,69 +4068,63 @@
         <v>0.376</v>
       </c>
       <c r="O46">
-        <v>0.877</v>
+        <v>1.9430000000000001</v>
       </c>
       <c r="P46">
-        <v>0.108</v>
+        <v>57.279000000000003</v>
       </c>
       <c r="Q46">
-        <v>1.9430000000000001</v>
+        <v>29.477</v>
       </c>
       <c r="R46">
-        <v>57.279000000000003</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="S46">
-        <v>29.477</v>
+        <v>68.147000000000006</v>
       </c>
       <c r="T46">
-        <v>0.46200000000000002</v>
+        <v>67.748000000000005</v>
       </c>
       <c r="U46">
-        <v>68.147000000000006</v>
+        <v>14.760999999999999</v>
       </c>
       <c r="V46">
-        <v>67.748000000000005</v>
+        <v>1.3160000000000001</v>
       </c>
       <c r="W46">
-        <v>14.760999999999999</v>
+        <v>5.1198805999999999E-2</v>
       </c>
       <c r="X46">
-        <v>1.3160000000000001</v>
+        <v>15.78869347</v>
       </c>
       <c r="Y46">
-        <v>5.1198805999999999E-2</v>
-      </c>
-      <c r="Z46">
-        <v>15.78869347</v>
-      </c>
-      <c r="AA46">
         <v>0.43646231200000002</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" t="s">
         <v>50</v>
-      </c>
-      <c r="C47" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" t="s">
-        <v>52</v>
       </c>
       <c r="E47">
         <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I47">
         <v>2</v>
@@ -4427,69 +4145,63 @@
         <v>4.6459999999999999</v>
       </c>
       <c r="O47">
-        <v>2.7170000000000001</v>
+        <v>2.06</v>
       </c>
       <c r="P47">
-        <v>0.90500000000000003</v>
+        <v>55.46</v>
       </c>
       <c r="Q47">
-        <v>2.06</v>
+        <v>26.922000000000001</v>
       </c>
       <c r="R47">
-        <v>55.46</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="S47">
-        <v>26.922000000000001</v>
+        <v>62.171999999999997</v>
       </c>
       <c r="T47">
-        <v>0.28100000000000003</v>
+        <v>45.23</v>
       </c>
       <c r="U47">
-        <v>62.171999999999997</v>
+        <v>22.109000000000002</v>
       </c>
       <c r="V47">
-        <v>45.23</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="W47">
-        <v>22.109000000000002</v>
+        <v>5.934176E-2</v>
       </c>
       <c r="X47">
-        <v>0.93200000000000005</v>
+        <v>13.032247890000001</v>
       </c>
       <c r="Y47">
-        <v>5.934176E-2</v>
-      </c>
-      <c r="Z47">
-        <v>13.032247890000001</v>
-      </c>
-      <c r="AA47">
         <v>0.61433239399999995</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" t="s">
         <v>50</v>
-      </c>
-      <c r="C48" t="s">
-        <v>51</v>
-      </c>
-      <c r="D48" t="s">
-        <v>52</v>
       </c>
       <c r="E48">
         <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -4510,69 +4222,63 @@
         <v>2.6070000000000002</v>
       </c>
       <c r="O48">
-        <v>1.728</v>
+        <v>1.9670000000000001</v>
       </c>
       <c r="P48">
-        <v>0.49299999999999999</v>
+        <v>66.629000000000005</v>
       </c>
       <c r="Q48">
-        <v>1.9670000000000001</v>
+        <v>33.880000000000003</v>
       </c>
       <c r="R48">
-        <v>66.629000000000005</v>
+        <v>0.249</v>
       </c>
       <c r="S48">
-        <v>33.880000000000003</v>
+        <v>68.903999999999996</v>
       </c>
       <c r="T48">
-        <v>0.249</v>
+        <v>36.106999999999999</v>
       </c>
       <c r="U48">
-        <v>68.903999999999996</v>
+        <v>27.696000000000002</v>
       </c>
       <c r="V48">
-        <v>36.106999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="W48">
-        <v>27.696000000000002</v>
+        <v>4.5206705999999999E-2</v>
       </c>
       <c r="X48">
-        <v>0.71</v>
+        <v>9.9280000000000008</v>
       </c>
       <c r="Y48">
-        <v>4.5206705999999999E-2</v>
-      </c>
-      <c r="Z48">
-        <v>9.9280000000000008</v>
-      </c>
-      <c r="AA48">
         <v>0.46800000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" t="s">
         <v>50</v>
-      </c>
-      <c r="C49" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" t="s">
-        <v>52</v>
       </c>
       <c r="E49">
         <v>6</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I49">
         <v>2</v>
@@ -4593,42 +4299,36 @@
         <v>5.4720000000000004</v>
       </c>
       <c r="O49">
-        <v>2.5529999999999999</v>
+        <v>2.8570000000000002</v>
       </c>
       <c r="P49">
-        <v>0.65800000000000003</v>
+        <v>48.939</v>
       </c>
       <c r="Q49">
-        <v>2.8570000000000002</v>
+        <v>17.132000000000001</v>
       </c>
       <c r="R49">
-        <v>48.939</v>
+        <v>0.255</v>
       </c>
       <c r="S49">
-        <v>17.132000000000001</v>
+        <v>97.710999999999999</v>
       </c>
       <c r="T49">
-        <v>0.255</v>
+        <v>26.058</v>
       </c>
       <c r="U49">
-        <v>97.710999999999999</v>
+        <v>38.375999999999998</v>
       </c>
       <c r="V49">
-        <v>26.058</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="W49">
-        <v>38.375999999999998</v>
+        <v>4.7371534E-2</v>
       </c>
       <c r="X49">
-        <v>0.74399999999999999</v>
+        <v>10.403425349999999</v>
       </c>
       <c r="Y49">
-        <v>4.7371534E-2</v>
-      </c>
-      <c r="Z49">
-        <v>10.403425349999999</v>
-      </c>
-      <c r="AA49">
         <v>0.49041126800000001</v>
       </c>
     </row>
